--- a/uploads/templates/excelInvitees.xlsx
+++ b/uploads/templates/excelInvitees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaaa/Desktop/eventer/uploads/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eventer\uploads\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{651609D4-5AEA-B54E-BCA5-7335730CF0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84924CC5-273D-412C-8B25-7BF6AE5346BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{4F2294CF-F50E-184E-9782-8C58F1BC68F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4F2294CF-F50E-184E-9782-8C58F1BC68F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Names</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
 </sst>
 </file>
@@ -408,31 +411,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06BBDF4-EB19-6E49-A52D-FC3DFCE80B71}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
